--- a/biology/Biochimie/Aérobie/Aérobie.xlsx
+++ b/biology/Biochimie/Aérobie/Aérobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A%C3%A9robie</t>
+          <t>Aérobie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un milieu est dit aérobie s'il contient du dioxygène. Le terme aérobie s'applique le plus souvent à un système (par exemple un organisme vivant ou un moteur) qui a besoin de dioxygène pour fonctionner. Le mot est forgé à partir du grec ancien : ἀήρ / aếr, « air » et βίος / bíos, « vie ».
 L'aérobiose désigne le mode de vie des organismes vivant en présence d'air et plus précisément, de dioxygène (mode de vie aérien, souterrain ou aquatique dans un milieu oxygéné dit oxique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A%C3%A9robie</t>
+          <t>Aérobie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>En biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aérobie désigne la capacité (ou le besoin) d'un organisme (ou d'un micro-organisme) à se développer dans l'air ambiant. En termes plus techniques, on définit un organisme aérobie comme un être vivant dont la voie métabolique de production d'énergie peut utiliser le dioxygène O2 comme accepteur d'électron[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aérobie désigne la capacité (ou le besoin) d'un organisme (ou d'un micro-organisme) à se développer dans l'air ambiant. En termes plus techniques, on définit un organisme aérobie comme un être vivant dont la voie métabolique de production d'énergie peut utiliser le dioxygène O2 comme accepteur d'électron.
 Dans le monde vivant, il existe deux grandes sources d'énergie :
 la lumière pour les organismes phototrophes, comme les plantes vertes et certaines bactéries ;
 les composés organiques pour les organismes chimiotrophes, comme tous les animaux, la plupart des micro-organismes et les plantes non photosynthétiques.
@@ -524,7 +538,7 @@
 Anaérobie : si l'organisme peut subsister en l'absence de dioxygène.
 Aéro-anaérobie facultative : si l'organisme utilise du dioxygène comme accepteur d'électrons mais peut s'adapter à l'absence de dioxygène. C'est le cas d'Escherichia coli et de la majorité des micro-organismes capables de coloniser l'organisme humain.
 Anaérobie obligatoire : si l'organisme ne peut utiliser l'oxygène et est de plus empoisonné par lui, comme chez la bactérie Clostridium botulinum.
-Chez l'homme, la voie principale de l'extraction d'énergie du glucose appelée glycolyse, se fait dans le cytosol des cellules[2]. Elle peut utiliser l'oxygène s'il est disponible (aérobiose) mais elle peut aussi s'en passer (en anaérobiose). La glycolyse réalise en une série d'étapes l'oxydation du glucose conduisant au pyruvate.
+Chez l'homme, la voie principale de l'extraction d'énergie du glucose appelée glycolyse, se fait dans le cytosol des cellules. Elle peut utiliser l'oxygène s'il est disponible (aérobiose) mais elle peut aussi s'en passer (en anaérobiose). La glycolyse réalise en une série d'étapes l'oxydation du glucose conduisant au pyruvate.
 glucose + 2 NAD+ → 2 CH3-CO-COO− + 2 (NADH + H+)
 Lors d'un exercice musculaire, les premières minutes se font en anaérobie. Puis le processus aérobie se met en route si les cellules sont correctement oxygénées par la respiration. Le pyruvate pénètre dans les mitochondries et entre dans le cycle de Krebs et la chaîne respiratoire pour produire une grande quantité d'ATP. Mais si l'exercice musculaire est très intense et prolongé, les cellules produisent un complément d'énergie par une voie anaérobie, conduisant au lactate.
 </t>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A%C3%A9robie</t>
+          <t>Aérobie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>En aéronautique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme aérobie est utilisé en aéronautique, dans le domaine de la propulsion. Un moteur aérobie utilise le dioxygène de l'air ambiant comme comburant pour son fonctionnement.
 Comme en biologie, le terme anaérobie désigne les propulseurs utilisant un comburant autre que le dioxygène de l'air ambiant.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A%C3%A9robie</t>
+          <t>Aérobie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Sport</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le monde du sport, il est courant d’utiliser le terme de filière ou voie « aérobie » pour les efforts d’endurance. Cet usage provient de l’origine métabolique de l’ATP durant ce type d’effort qui est majoritairement oxydative (métabolisme mitochondrial).
 En réalité, le muscle n’est jamais en réelle anaérobiose à l’effort (personne en bonne santé) donc le terme anaérobie est inapproprié pour la cellule musculaire humaine a contrario de certaines bactéries.
